--- a/medicine/Psychotrope/Brassage/Brassage.xlsx
+++ b/medicine/Psychotrope/Brassage/Brassage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le brassage proprement dit est l'une des étapes de l'élaboration notamment de la bière, du whisky et du saké. Par extension, le terme désigne l'ensemble du processus d'élaboration et des activités s'y rapportant : brasseur, brasserie...
 Il existe deux méthodes de brassage : par décoction pratiquée à l'origine en Allemagne (bière) et par infusion pratiquée à l'origine dans les Îles Britanniques (bière et whisky) ainsi qu'au Japon (saké).
@@ -514,14 +526,89 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brassage par infusion
-Le malt concassé est ajouté à de l'eau chaude dans une cuve appelée cuve matière, à une température d'environ 68 °C. Le brasseur maintient ces conditions pendant une heure à plusieurs heures selon le type de bière, tout en remuant (brassant) le mélange afin d'uniformiser la température et d'obtenir un mélange homogène.
-Brassage par décoction
-Tout comme l'infusion, le malt est ajouté à l'eau, mais à une température plus froide (environ 50 °C), puis une partie du mélange est prélevée et portée à ébullition. Cette partie est ensuite réintégrée, ce qui a pour effet d'augmenter la température du mélange.
+          <t>Brassage par infusion</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le malt concassé est ajouté à de l'eau chaude dans une cuve appelée cuve matière, à une température d'environ 68 °C. Le brasseur maintient ces conditions pendant une heure à plusieurs heures selon le type de bière, tout en remuant (brassant) le mélange afin d'uniformiser la température et d'obtenir un mélange homogène.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Brassage</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brassage</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Brassage de la bière</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Brassage par décoction</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout comme l'infusion, le malt est ajouté à l'eau, mais à une température plus froide (environ 50 °C), puis une partie du mélange est prélevée et portée à ébullition. Cette partie est ensuite réintégrée, ce qui a pour effet d'augmenter la température du mélange.
 Trois décoctions (dit multipalier) ont typiquement lieu lors d'un brassage pour obtenir les températures de 64 °C, 68 °C et 72 °C.
 Une fois la saccharification terminée, il faut filtrer le mélange afin de séparer le liquide du malt (dréches), on obtient alors un jus sucré appelé moût, une fois fermenté, deviendra de la bière.
-Houblonnage
-Le houblonnage conditionne l'élaboration de la bière. En son absence, le produit obtenu est de la cervoise. Le houblon agit sur plusieurs aspects importants de la bière :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brassage</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brassage</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Brassage de la bière</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Houblonnage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le houblonnage conditionne l'élaboration de la bière. En son absence, le produit obtenu est de la cervoise. Le houblon agit sur plusieurs aspects importants de la bière :
 sa conservation,
 sa clarté,
 son amertume,
@@ -535,31 +622,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Brassage</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Brassage</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Brassage artisanal</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le brassage artisanal ne diffère pas grandement du brassage commercial par ses ingrédients.  L’objectif est le même étant de produire une boisson alcoolique à partir de blé, d’orge, de malt ou d’autre grain.    
 La différence majeure est que la brasserie artisanale produit de plus petite quantité de breuvage à la fois. Le brassage commercial est plus orienté vers l’efficacité et la création d’un produit apprécié d’une grande majorité.  Au contraire, la brasserie artisanale tient à se distinguer en créant un produit hors du commun et plus raffiné au niveau des gout. 
